--- a/03.crawler/01.RockAuto/file/4.info/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/4.info/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Part Number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>OEM</t>
@@ -486,24 +486,24 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Json_Note 1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Note 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Choose</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Json_Price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Note 2</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Json_Specification</t>
@@ -516,20 +516,15 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>Type Code</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Type Code</t>
+          <t>Part Code</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Part Code</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>JOIN_MPNTCPC</t>
         </is>
@@ -541,20 +536,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>30250S</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
@@ -564,7 +563,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-ANG.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/583/3-0250S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "2": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg", "3": "https://www.rockauto.com/info/583/715F-1-ANG.jpg", "4": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "5": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "6": "https://www.rockauto.com/info/583/717F-1-ANG.jpg", "7": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "10": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg"}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -572,22 +571,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304960&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>{"0": "$171.79"}</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Silent"}}</t>
@@ -595,25 +594,20 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8306448", "Kit_Part Number": "715F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/715F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8307424", "Kit_Part Number": "BG5515", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5515-1-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8308132", "Kit_Part Number": "BT5514", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5514-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5514-2-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8308292", "Kit_Part Number": "BT7015", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7015-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7015-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Tensioner", "Kit_Type Code": "11860", "Kit_Part Code": "8308296", "Kit_Part Number": "BT7016", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7016-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7016-2-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "8314844", "Kit_Part Number": "S899", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S899-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/S899-2-FRO.jpg\", \"2\": \"https://www.rockauto.com/info/583/S899-3-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S899;5723;8314844"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "8314860", "Kit_Part Number": "S906A", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S906A-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/S906A-2-FRO.jpg\", \"2\": \"https://www.rockauto.com/info/583/S906A-3-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S906A;5722;8314860"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain", "Kit_Type Code": "5568", "Kit_Part Code": "8527968", "Kit_Part Number": "717F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/717F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Guide", "Kit_Type Code": "11859", "Kit_Part Code": "8921276", "Kit_Part Number": "BG7019", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG7019-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG7019-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}, "9": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Sprocket", "Kit_Type Code": "5589", "Kit_Part Code": "8921472", "Kit_Part Number": "S905", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S905-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S905-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S905;5589;8921472"}}</t>
+          <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8306448", "[Kit] Part Number": "715F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8307424", "[Kit] Part Number": "BG5515", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8308132", "[Kit] Part Number": "BT5514", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8308292", "[Kit] Part Number": "BT7015", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Tensioner", "[Kit] Type Code": "11860", "[Kit] Part Code": "8308296", "[Kit] Part Number": "BT7016", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "8314844", "[Kit] Part Number": "S899", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S899-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S899-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S899;5723;8314844"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "8314860", "[Kit] Part Number": "S906A", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S906A-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S906A-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S906A;5722;8314860"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain", "[Kit] Type Code": "5568", "[Kit] Part Code": "8527968", "[Kit] Part Number": "717F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Guide", "[Kit] Type Code": "11859", "[Kit] Part Code": "8921276", "[Kit] Part Number": "BG7019", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}, "9": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Sprocket", "[Kit] Type Code": "5589", "[Kit] Part Code": "8921472", "[Kit] Part Number": "S905", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S905-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S905-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S905;5589;8921472"}}</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304960</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
-        <is>
-          <t>8304960</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
         <is>
           <t>MELLING;30250S;5756;8304960</t>
         </is>
@@ -625,20 +619,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>30250SX</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -656,20 +654,20 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=11158045&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"0": "$134.89"}</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
+          <t>{"0": "$135.79"}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -679,25 +677,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8306448", "Kit_Part Number": "715F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/715F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8307424", "Kit_Part Number": "BG5515", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5515-1-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8308132", "Kit_Part Number": "BT5514", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5514-1-ANG.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5514-2-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "8308292", "Kit_Part Number": "BT7015", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7015-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7015-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Tensioner", "Kit_Type Code": "11860", "Kit_Part Code": "8308296", "Kit_Part Number": "BT7016", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT7016-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT7016-2-SID.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain", "Kit_Type Code": "5568", "Kit_Part Code": "8527968", "Kit_Part Number": "717F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/717F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Oil Pump Chain Guide", "Kit_Type Code": "11859", "Kit_Part Code": "8921276", "Kit_Part Number": "BG7019", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG7019-2-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG7019-1-TOP.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}}</t>
+          <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8306448", "[Kit] Part Number": "715F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;715F;5724;8306448"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8307424", "[Kit] Part Number": "BG5515", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5515;5728;8307424"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8308132", "[Kit] Part Number": "BT5514", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5514;5736;8308132"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "8308292", "[Kit] Part Number": "BT7015", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7015;5728;8308292"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Tensioner", "[Kit] Type Code": "11860", "[Kit] Part Code": "8308296", "[Kit] Part Number": "BT7016", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT7016;11860;8308296"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain", "[Kit] Type Code": "5568", "[Kit] Part Code": "8527968", "[Kit] Part Number": "717F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;717F;5568;8527968"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Oil Pump Chain Guide", "[Kit] Type Code": "11859", "[Kit] Part Code": "8921276", "[Kit] Part Number": "BG7019", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG7019;11859;8921276"}}</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>11158045</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
-        <is>
-          <t>11158045</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
         <is>
           <t>MELLING;30250SX;5756;11158045</t>
         </is>
@@ -709,20 +702,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>30420S</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -740,48 +737,43 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304968&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"0": "$138.89"}</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"0": "$139.79"}</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Silent"}}</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Silent"}}</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304968</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
-        <is>
-          <t>8304968</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
         <is>
           <t>MELLING;30420S;5756;8304968</t>
         </is>
@@ -793,20 +785,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>30430S</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -824,48 +820,43 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304972&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>{"0": "$188.79"}</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}}</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}}</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304972</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
-        <is>
-          <t>8304972</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
         <is>
           <t>MELLING;30430S;5756;8304972</t>
         </is>
@@ -877,20 +868,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>30460S</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -908,22 +903,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304976&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>{"0": "$223.79"}</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>{"0": {"0": "Sprockets Included", "1": "No"}, "1": {"0": "Timing Chain Type", "1": "Silent"}}</t>
@@ -931,25 +926,20 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}}</t>
+          <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}}</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304976</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
-        <is>
-          <t>8304976</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
         <is>
           <t>MELLING;30460S;5756;8304976</t>
         </is>
@@ -961,20 +951,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>30460SA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -992,22 +986,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=9658980&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>{"0": "$301.79"}</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>{"0": {"0": "Keyway Adjustable", "1": "No"}, "1": {"0": "Sprockets Included", "1": "Yes"}, "2": {"0": "Timing Chain Type", "1": "Silent"}}</t>
@@ -1015,25 +1009,20 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"Kit_Quantity": 2, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659204", "Kit_Part Number": "S1251", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1251-1-FRO.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659212", "Kit_Part Number": "S1274", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1274-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1274-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1274;5722;9659212"}, "9": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659216", "Kit_Part Number": "S1276", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1276-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1276-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1276;5722;9659216"}}</t>
+          <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659204", "[Kit] Part Number": "S1251", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659212", "[Kit] Part Number": "S1274", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1274-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1274-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1274;5722;9659212"}, "9": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659216", "[Kit] Part Number": "S1276", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1276-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1276-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1276;5722;9659216"}}</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>9658980</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
-        <is>
-          <t>9658980</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
         <is>
           <t>MELLING;30460SA;5756;9658980</t>
         </is>
@@ -1045,20 +1034,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>30460SB</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -1076,22 +1069,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=9658984&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>{"0": "$272.79"}</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>{"0": {"0": "Keyway Adjustable", "1": "No"}, "1": {"0": "Sprockets Included", "1": "Yes"}, "2": {"0": "Timing Chain Type", "1": "Silent"}}</t>
@@ -1099,25 +1092,20 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "9659040", "Kit_Part Number": "722F", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/722F-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659056", "Kit_Part Number": "BG5053", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5053-1-SID.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5053-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659060", "Kit_Part Number": "BG5054", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5054-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5054-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659088", "Kit_Part Number": "BT5066", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5066-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5066-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659092", "Kit_Part Number": "BT5068", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5068-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5068-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659096", "Kit_Part Number": "BT5069", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5069-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5069-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9659100", "Kit_Part Number": "BT5070", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5070-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5070-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"Kit_Quantity": 2, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659204", "Kit_Part Number": "S1251", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1251-1-FRO.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "9659220", "Kit_Part Number": "S1278", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1278-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1278-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1278;5722;9659220"}}</t>
+          <t>{"0": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "9659040", "[Kit] Part Number": "722F", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;722F;5724;9659040"}, "1": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659056", "[Kit] Part Number": "BG5053", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5053;5728;9659056"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659060", "[Kit] Part Number": "BG5054", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5054;5728;9659060"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659088", "[Kit] Part Number": "BT5066", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5066;5736;9659088"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659092", "[Kit] Part Number": "BT5068", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5068;5736;9659092"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659096", "[Kit] Part Number": "BT5069", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5069;5728;9659096"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9659100", "[Kit] Part Number": "BT5070", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5070;5728;9659100"}, "7": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659204", "[Kit] Part Number": "S1251", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1251;5723;9659204"}, "8": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "9659220", "[Kit] Part Number": "S1278", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1278-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1278-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1278;5722;9659220"}}</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>9658984</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
-        <is>
-          <t>9658984</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
         <is>
           <t>MELLING;30460SB;5756;9658984</t>
         </is>
@@ -1129,20 +1117,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>30470S</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>TS13174</t>
@@ -1156,7 +1148,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-TOP.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-TOP.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
+          <t>{"0": "https://www.rockauto.com/info/583/3-0470S-1-KIT.jpg", "1": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "2": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "3": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "4": "https://www.rockauto.com/info/583/470-1-ANG.jpg", "5": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "6": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "7": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "8": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "9": "https://www.rockauto.com/info/583/471-1-ANG.jpg", "10": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "11": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg"}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1164,22 +1156,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304980&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>{"0": "$281.79"}</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Single Roller"}}</t>
@@ -1187,25 +1179,20 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110008", "Kit_Part Number": "470", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/470-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110012", "Kit_Part Number": "471", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/471-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110016", "Kit_Part Number": "BG5622", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5622-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5622-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110020", "Kit_Part Number": "BG5623", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5623-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5623-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110028", "Kit_Part Number": "BT5618", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5618-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5618-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110032", "Kit_Part Number": "BT5619", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5619-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5619-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110036", "Kit_Part Number": "BT5620", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5620-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5620-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110040", "Kit_Part Number": "BT5621", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5621-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5621-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "10454636", "Kit_Part Number": "S959", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S959-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/S959-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S959;5723;10454636"}, "9": {"Kit_Quantity": 2, "Kit_Type": "Timing Cam Sprocket", "Kit_Type Code": "5722", "Kit_Part Code": "10454640", "Kit_Part Number": "S960", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S960-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/S960-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S960;5722;10454640"}, "10": {"Kit_Quantity": 1, "Kit_Type": "Timing Idler Sprocket", "Kit_Type Code": "10465", "Kit_Part Code": "10454644", "Kit_Part Number": "S961", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S961-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S961-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S961;10465;10454644"}}</t>
+          <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110008", "[Kit] Part Number": "470", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110012", "[Kit] Part Number": "471", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110016", "[Kit] Part Number": "BG5622", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110020", "[Kit] Part Number": "BG5623", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110028", "[Kit] Part Number": "BT5618", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110032", "[Kit] Part Number": "BT5619", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110036", "[Kit] Part Number": "BT5620", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110040", "[Kit] Part Number": "BT5621", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "10454636", "[Kit] Part Number": "S959", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S959-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S959-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S959;5723;10454636"}, "9": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Cam Sprocket", "[Kit] Type Code": "5722", "[Kit] Part Code": "10454640", "[Kit] Part Number": "S960", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S960-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S960-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S960;5722;10454640"}, "10": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Idler Sprocket", "[Kit] Type Code": "10465", "[Kit] Part Code": "10454644", "[Kit] Part Number": "S961", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S961-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S961-3-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S961;10465;10454644"}}</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304980</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
-        <is>
-          <t>8304980</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
         <is>
           <t>MELLING;30470S;5756;8304980</t>
         </is>
@@ -1217,20 +1204,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>30470SX</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
@@ -1248,22 +1239,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=10110000&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"0": "Does Not Include Sprockets"}</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>{"0": "$202.79"}</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>{"0": "Does Not Include Sprockets"}</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>{"0": {"0": "Keyway Adjustable", "1": "No"}, "1": {"0": "Sprockets Included", "1": "No"}, "2": {"0": "Timing Chain Type", "1": "Single Roller"}}</t>
@@ -1271,25 +1262,20 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110008", "Kit_Part Number": "470", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/470-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "10110012", "Kit_Part Number": "471", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/471-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110016", "Kit_Part Number": "BG5622", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5622-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5622-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110020", "Kit_Part Number": "BG5623", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5623-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5623-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110028", "Kit_Part Number": "BT5618", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5618-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5618-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110032", "Kit_Part Number": "BT5619", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5619-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5619-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "10110036", "Kit_Part Number": "BT5620", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5620-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5620-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "10110040", "Kit_Part Number": "BT5621", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5621-1-TOP.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5621-2-BOT.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}}</t>
+          <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110008", "[Kit] Part Number": "470", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;470;5724;10110008"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "10110012", "[Kit] Part Number": "471", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;471;5724;10110012"}, "2": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110016", "[Kit] Part Number": "BG5622", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5622;5728;10110016"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110020", "[Kit] Part Number": "BG5623", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5623;5728;10110020"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110028", "[Kit] Part Number": "BT5618", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5618;5736;10110028"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110032", "[Kit] Part Number": "BT5619", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5619;5736;10110032"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "10110036", "[Kit] Part Number": "BT5620", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5620;5736;10110036"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "10110040", "[Kit] Part Number": "BT5621", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5621;5728;10110040"}}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>10110000</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
-        <is>
-          <t>10110000</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
         <is>
           <t>MELLING;30470SX;5756;10110000</t>
         </is>
@@ -1301,20 +1287,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Timing Chain &amp; Component Kit</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>MELLING</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>30490S</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>TS11170</t>
@@ -1336,22 +1326,22 @@
           <t>https://www.rockauto.com/en/moreinfo.php?pk=8304984&amp;cc=0&amp;pt=5756</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>{"0": "Category: Timing Chain &amp; Component Kit"}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>{"0": "$249.79"}</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>{"0": "Category: Timing Chain &amp;amp; Component Kit"}</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>{"0": {"0": "Camshaft Sprocket Material", "1": "High Alloy Steel"}, "1": {"0": "Keyway Adjustable", "1": "No"}, "2": {"0": "Sprockets Included", "1": "Yes"}, "3": {"0": "Timing Chain Type", "1": "Roller"}}</t>
@@ -1359,25 +1349,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{"0": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8921164", "Kit_Part Number": "1025", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/1025-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;1025;5724;8921164"}, "1": {"Kit_Quantity": 2, "Kit_Type": "Timing Chain", "Kit_Type Code": "5724", "Kit_Part Code": "8921168", "Kit_Part Number": "1026", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/1026-1-ANG.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;1026;5724;8921168"}, "2": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "8921288", "Kit_Part Number": "BT5079", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5079-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5079-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5079;5736;8921288"}, "3": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659104", "Kit_Part Number": "BT5077", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5077-1-RIT.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5077-2-LEF.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5077;5736;9659104"}, "4": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Tensioner", "Kit_Type Code": "5736", "Kit_Part Code": "9659108", "Kit_Part Number": "BT5078", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BT5078-1-RIT.jpg\", \"1\": \"https://www.rockauto.com/info/583/BT5078-2-LEF.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BT5078;5736;9659108"}, "5": {"Kit_Quantity": 1, "Kit_Type": "Timing Crank Sprocket", "Kit_Type Code": "5723", "Kit_Part Code": "9659208", "Kit_Part Number": "S1261", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1261-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1261-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1261;5723;9659208"}, "6": {"Kit_Quantity": 1, "Kit_Type": "Timing Idler Sprocket", "Kit_Type Code": "10465", "Kit_Part Code": "9659228", "Kit_Part Number": "S1290", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/S1290-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/S1290-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;S1290;10465;9659228"}, "7": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9722104", "Kit_Part Number": "BG5062", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5062-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5062-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5062;5728;9722104"}, "8": {"Kit_Quantity": 1, "Kit_Type": "Timing Chain Guide / Damper", "Kit_Type Code": "5728", "Kit_Part Code": "9722108", "Kit_Part Number": "BG5063", "Kit_Manufacturer": "MELLING", "Kit_Url": "https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728", "Kit_Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728", "Kit_Json_Src": "{\"0\": \"https://www.rockauto.com/info/583/BG5063-1-FRO.jpg\", \"1\": \"https://www.rockauto.com/info/583/BG5063-2-BAC.jpg\"}", "Kit_JOIN_MPNTCPC": "MELLING;BG5063;5728;9722108"}}</t>
+          <t>{"0": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8921164", "[Kit] Part Number": "1025", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/1025-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;1025;5724;8921164"}, "1": {"[Kit] Quantity": 2, "[Kit] Type": "Timing Chain", "[Kit] Type Code": "5724", "[Kit] Part Code": "8921168", "[Kit] Part Number": "1026", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/1026-1-ANG.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;1026;5724;8921168"}, "2": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "8921288", "[Kit] Part Number": "BT5079", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5079-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5079-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5079;5736;8921288"}, "3": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659104", "[Kit] Part Number": "BT5077", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5077-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5077-2-LEF.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5077;5736;9659104"}, "4": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Tensioner", "[Kit] Type Code": "5736", "[Kit] Part Code": "9659108", "[Kit] Part Number": "BT5078", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BT5078-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5078-2-LEF.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BT5078;5736;9659108"}, "5": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Crank Sprocket", "[Kit] Type Code": "5723", "[Kit] Part Code": "9659208", "[Kit] Part Number": "S1261", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1261-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1261-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1261;5723;9659208"}, "6": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Idler Sprocket", "[Kit] Type Code": "10465", "[Kit] Part Code": "9659228", "[Kit] Part Number": "S1290", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/S1290-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1290-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;S1290;10465;9659228"}, "7": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9722104", "[Kit] Part Number": "BG5062", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5062-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5062-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5062;5728;9722104"}, "8": {"[Kit] Quantity": 1, "[Kit] Type": "Timing Chain Guide / Damper", "[Kit] Type Code": "5728", "[Kit] Part Code": "9722108", "[Kit] Part Number": "BG5063", "[Kit] Manufacturer": "MELLING", "[Kit] Url": "https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728", "[Kit] Info": "https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728", "[Kit] Dict_Src": {"0": "https://www.rockauto.com/info/583/BG5063-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5063-2-BAC.jpg"}, "[Kit] JOIN_MPNTCPC": "MELLING;BG5063;5728;9722108"}}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Engine</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>8304984</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
-        <is>
-          <t>8304984</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
         <is>
           <t>MELLING;30490S;5756;8304984</t>
         </is>
